--- a/Documents/PSM Plots.xlsx
+++ b/Documents/PSM Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiern\Documents\GitHub\ModelingFinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59988F61-4EBD-4BEC-973C-0FE174B73537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BAC36-A287-4ECB-BCE4-78884A9A35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,6 +586,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PSM 5th</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Order Simulation with a Time Step of 1 Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27212775949112589"/>
+          <c:y val="1.183431585074598E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3762,6 +3800,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time step</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3803,6 +3901,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3827,6 +3927,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> meters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3870,37 +4030,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4505,16 +4634,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4841,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/PSM Plots.xlsx
+++ b/Documents/PSM Plots.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiern\Documents\GitHub\ModelingFinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BAC36-A287-4ECB-BCE4-78884A9A35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E899004F-DBE4-4306-BD9D-C782F362C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FSFO, ts = 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PSM 5, time step = 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PSM 5, time step = 10" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -606,13 +607,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PSM 5th</a:t>
+              <a:t>PSM 5th Order Simulation with a Time Step of 1 Second</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Order Simulation with a Time Step of 1 Second</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -674,9 +670,1548 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 1'!$A$1:$A$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="510"/>
+                <c:pt idx="0">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FSFO, ts = 1'!$A$1:$A$510</c:f>
+              <c:f>'PSM 5, time step = 1'!$A$1:$A$510</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="510"/>
@@ -2235,9 +3770,1636 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="489"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-67EB-4E55-AE53-BC55D1771CE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="490"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10685248406723744"/>
+                  <c:y val="-1.4109343523908533E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-67EB-4E55-AE53-BC55D1771CE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 1'!$A$1:$A$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="510"/>
+                <c:pt idx="0">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FSFO, ts = 1'!$X$1:$X$510</c:f>
+              <c:f>'PSM 5, time step = 1'!$X$1:$X$510</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="510"/>
@@ -3778,6 +6940,1248 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4F59-4BF3-A124-47C8EEE1AC21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>660 point</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 1'!$V$1:$V$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="510"/>
+                <c:pt idx="499">
+                  <c:v>660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-67EB-4E55-AE53-BC55D1771CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1853951760"/>
+        <c:axId val="1853955504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1853951760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time step in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853955504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1853955504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6480000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance in meters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853951760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PSM 5th</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Order Simulation with a Time Step of 10 Seconds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27212775949112589"/>
+          <c:y val="1.183431585074598E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 10'!$A$1:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 10'!$A$1:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1ABA-4BDB-991F-24184A3C1FE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7560963713564625E-2"/>
+                  <c:y val="-1.7636679404885666E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1ABA-4BDB-991F-24184A3C1FE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 10'!$A$1:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PSM 5, time step = 10'!$X$1:$X$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>6488037.19828879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6506361.8891797839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6523901.1298909169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6540658.7197450036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6556638.2658824548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6571843.1819027346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6586276.6982531659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6599941.8609373486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6612841.5386088844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6624978.4243811052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6636355.038812343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6646973.7349710716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6656836.6969249425</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6665945.9473134894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6674303.3446288435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6681910.591093882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6688769.2289911136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6694880.645418074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6700246.0721268682</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6704866.5901125101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6708743.1263827095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6711876.4593503634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6714267.2160123661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6715915.873753774</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6716822.7619011523</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6716988.062344675</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6716411.8088737074</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6715093.8850289229</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6713034.0277169282</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6710231.8256141236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6706686.7177292211</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6702397.9932612944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6697364.7922897814</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6691586.102491688</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6685060.7601775397</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6677787.4468618128</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6669764.6883181185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6660990.8558502216</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6651464.160397972</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6641182.6524680443</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6630144.2199889626</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6618346.586454669</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6605787.3055503294</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6592463.762113044</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6578373.1656613722</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6563512.5493564829</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6547878.7662722692</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6531468.4847903056</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6514278.1844283147</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6496304.1519552534</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6477542.4773152731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1ABA-4BDB-991F-24184A3C1FE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3860,6 +8264,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3901,7 +8306,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="20"/>
+        <c:tickLblSkip val="2"/>
         <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -4114,7 +8519,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4671,6 +9632,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392D13B0-2424-4EED-A9CB-80FFEC9B18A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4970,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AN39" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37971,6 +42975,9 @@
       <c r="T500">
         <v>5</v>
       </c>
+      <c r="V500">
+        <v>660</v>
+      </c>
       <c r="X500">
         <f t="shared" si="7"/>
         <v>6479454.2020608913</v>
@@ -38634,6 +43641,3388 @@
       <c r="X510">
         <f t="shared" si="7"/>
         <v>6459980.1384728402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED366CD8-9BB5-45E3-8831-BDC8A8290682}">
+  <dimension ref="A1:X51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK49" sqref="AK49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>161</v>
+      </c>
+      <c r="B1">
+        <v>356403.951</v>
+      </c>
+      <c r="C1">
+        <v>3068.4986669999998</v>
+      </c>
+      <c r="D1">
+        <v>-0.26008203810000002</v>
+      </c>
+      <c r="E1">
+        <v>-6.7136489640000005E-4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2.5388736549999998E-7</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-4.187059506E-10</v>
+      </c>
+      <c r="H1">
+        <v>4076924.673</v>
+      </c>
+      <c r="I1">
+        <v>1991.659005</v>
+      </c>
+      <c r="J1">
+        <v>-2.975092939</v>
+      </c>
+      <c r="K1">
+        <v>3.7388441990000002E-4</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-5.8113056130000005E-7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2.3906396759999998E-10</v>
+      </c>
+      <c r="N1">
+        <v>5034509.72</v>
+      </c>
+      <c r="O1">
+        <v>582.24431800000002</v>
+      </c>
+      <c r="P1">
+        <v>-3.6738805650000002</v>
+      </c>
+      <c r="Q1">
+        <v>9.1832786479999998E-4</v>
+      </c>
+      <c r="R1" s="1">
+        <v>-9.152387399E-7</v>
+      </c>
+      <c r="S1" s="1">
+        <v>5.8032977629999998E-10</v>
+      </c>
+      <c r="T1">
+        <v>5</v>
+      </c>
+      <c r="X1">
+        <f>((B1)^2+(H1)^2+(N1)^2)^0.5</f>
+        <v>6488037.19828879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>387062.26059999998</v>
+      </c>
+      <c r="C2">
+        <v>3063.0966109999999</v>
+      </c>
+      <c r="D2">
+        <v>-0.2800747945</v>
+      </c>
+      <c r="E2">
+        <v>-6.6162210520000003E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3339913559999999E-7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-4.0107060780000001E-10</v>
+      </c>
+      <c r="H2">
+        <v>4096544.122</v>
+      </c>
+      <c r="I2">
+        <v>1932.2669989999999</v>
+      </c>
+      <c r="J2">
+        <v>-2.9642227349999999</v>
+      </c>
+      <c r="K2">
+        <v>3.5087283240000001E-4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-5.695830805E-7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2.229517656E-10</v>
+      </c>
+      <c r="N2">
+        <v>5039965.6840000004</v>
+      </c>
+      <c r="O2">
+        <v>509.03857310000001</v>
+      </c>
+      <c r="P2">
+        <v>-3.646874151</v>
+      </c>
+      <c r="Q2">
+        <v>8.8228774000000002E-4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-8.8703622140000002E-7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.4808186600000001E-10</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X65" si="0">((B2)^2+(H2)^2+(N2)^2)^0.5</f>
+        <v>6506361.8891797839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>417664.56</v>
+      </c>
+      <c r="C3">
+        <v>3057.2975419999998</v>
+      </c>
+      <c r="D3">
+        <v>-0.29978738729999999</v>
+      </c>
+      <c r="E3">
+        <v>-6.5268169389999997E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.1375644079999999E-7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-3.8486744779999999E-10</v>
+      </c>
+      <c r="H3">
+        <v>4115570.7149999999</v>
+      </c>
+      <c r="I3">
+        <v>1873.0855389999999</v>
+      </c>
+      <c r="J3">
+        <v>-2.9540361100000001</v>
+      </c>
+      <c r="K3">
+        <v>3.2830726029999999E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-5.5882419969999995E-7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.0751079890000001E-10</v>
+      </c>
+      <c r="N3">
+        <v>5044692.2560000001</v>
+      </c>
+      <c r="O3">
+        <v>436.36225569999999</v>
+      </c>
+      <c r="P3">
+        <v>-3.6209323370000002</v>
+      </c>
+      <c r="Q3">
+        <v>8.4734407809999997E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-8.6040062949999996E-7</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5.1762977900000001E-10</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>6523901.1298909169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>191</v>
+      </c>
+      <c r="B4">
+        <v>448206.90610000002</v>
+      </c>
+      <c r="C4">
+        <v>3051.1068260000002</v>
+      </c>
+      <c r="D4">
+        <v>-0.31924339489999998</v>
+      </c>
+      <c r="E4">
+        <v>-6.4451123980000002E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.9489015430000001E-7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-3.6999879210000003E-10</v>
+      </c>
+      <c r="H4">
+        <v>4134006.4890000001</v>
+      </c>
+      <c r="I4">
+        <v>1814.1010839999999</v>
+      </c>
+      <c r="J4">
+        <v>-2.9445201490000001</v>
+      </c>
+      <c r="K4">
+        <v>3.0615681269999999E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-5.4882170260000002E-7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.926878318E-10</v>
+      </c>
+      <c r="N4">
+        <v>5048694.6239999998</v>
+      </c>
+      <c r="O4">
+        <v>364.19439640000002</v>
+      </c>
+      <c r="P4">
+        <v>-3.5960231519999999</v>
+      </c>
+      <c r="Q4">
+        <v>8.1343595289999995E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-8.3524552100000002E-7</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4.8884140570000003E-10</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>6540658.7197450036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5">
+        <v>478685.40749999997</v>
+      </c>
+      <c r="C5">
+        <v>3044.5293660000002</v>
+      </c>
+      <c r="D5">
+        <v>-0.33846546300000002</v>
+      </c>
+      <c r="E5">
+        <v>-6.3708099090000001E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.7673579810000001E-7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-3.563762292E-10</v>
+      </c>
+      <c r="H5">
+        <v>4151853.3489999999</v>
+      </c>
+      <c r="I5">
+        <v>1755.300342</v>
+      </c>
+      <c r="J5">
+        <v>-2.9356628470000001</v>
+      </c>
+      <c r="K5">
+        <v>2.8439183550000002E-4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-5.3954594990000004E-7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.7843296910000001E-10</v>
+      </c>
+      <c r="N5">
+        <v>5051977.7709999997</v>
+      </c>
+      <c r="O5">
+        <v>292.51464759999999</v>
+      </c>
+      <c r="P5">
+        <v>-3.5721164019999998</v>
+      </c>
+      <c r="Q5">
+        <v>7.8050576749999999E-4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-8.1149079559999996E-7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.6159496200000001E-10</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>6556638.2658824548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>211</v>
+      </c>
+      <c r="B6">
+        <v>509096.2193</v>
+      </c>
+      <c r="C6">
+        <v>3037.5696210000001</v>
+      </c>
+      <c r="D6">
+        <v>-0.35747538309999999</v>
+      </c>
+      <c r="E6">
+        <v>-6.303636888E-4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.5923310069999999E-7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-3.4391976600000002E-10</v>
+      </c>
+      <c r="H6">
+        <v>4169113.0649999999</v>
+      </c>
+      <c r="I6">
+        <v>1696.6702540000001</v>
+      </c>
+      <c r="J6">
+        <v>-2.9274530699999999</v>
+      </c>
+      <c r="K6">
+        <v>2.6298381100000001E-4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-5.3096972000000004E-7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.6469934760000001E-10</v>
+      </c>
+      <c r="N6">
+        <v>5054546.4780000001</v>
+      </c>
+      <c r="O6">
+        <v>221.3032485</v>
+      </c>
+      <c r="P6">
+        <v>-3.5491835730000001</v>
+      </c>
+      <c r="Q6">
+        <v>7.4849901009999996E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-7.8906220430000001E-7</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.3577803899999998E-10</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>6571843.1819027346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>221</v>
+      </c>
+      <c r="B7">
+        <v>539435.5392</v>
+      </c>
+      <c r="C7">
+        <v>3030.231624</v>
+      </c>
+      <c r="D7">
+        <v>-0.37629416389999998</v>
+      </c>
+      <c r="E7">
+        <v>-6.2433440839999995E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.423255959E-7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3.3255707230000001E-10</v>
+      </c>
+      <c r="H7">
+        <v>4185787.28</v>
+      </c>
+      <c r="I7">
+        <v>1638.1979719999999</v>
+      </c>
+      <c r="J7">
+        <v>-2.9198805239999999</v>
+      </c>
+      <c r="K7">
+        <v>2.4190526470000001E-4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-5.2306806460000003E-7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.5144285259999999E-10</v>
+      </c>
+      <c r="N7">
+        <v>5056405.3329999996</v>
+      </c>
+      <c r="O7">
+        <v>150.54099220000001</v>
+      </c>
+      <c r="P7">
+        <v>-3.527197744</v>
+      </c>
+      <c r="Q7">
+        <v>7.1736402970000001E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-7.6789090230000003E-7</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.1128674799999999E-10</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>6586276.6982531659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>231</v>
+      </c>
+      <c r="B8">
+        <v>569699.60309999995</v>
+      </c>
+      <c r="C8">
+        <v>3022.5189930000001</v>
+      </c>
+      <c r="D8">
+        <v>-0.3949420998</v>
+      </c>
+      <c r="E8">
+        <v>-6.1897041350000002E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.259602565E-7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-3.2222281030000001E-10</v>
+      </c>
+      <c r="H8">
+        <v>4201877.5080000004</v>
+      </c>
+      <c r="I8">
+        <v>1579.870848</v>
+      </c>
+      <c r="J8">
+        <v>-2.9129357250000001</v>
+      </c>
+      <c r="K8">
+        <v>2.2112967669999999E-4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-5.1581817780000004E-7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.386218563E-10</v>
+      </c>
+      <c r="N8">
+        <v>5057558.733</v>
+      </c>
+      <c r="O8">
+        <v>80.209195570000006</v>
+      </c>
+      <c r="P8">
+        <v>-3.5061335040000001</v>
+      </c>
+      <c r="Q8">
+        <v>6.8705182769999995E-4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-7.4791304210000002E-7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3.8802494749999998E-10</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>6599941.8609373486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>241</v>
+      </c>
+      <c r="B9">
+        <v>599884.68110000005</v>
+      </c>
+      <c r="C9">
+        <v>3014.4349480000001</v>
+      </c>
+      <c r="D9">
+        <v>-0.41343883419999999</v>
+      </c>
+      <c r="E9">
+        <v>-6.1425102579999995E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.1008716E-7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-3.1285803819999998E-10</v>
+      </c>
+      <c r="H9">
+        <v>4217385.1390000004</v>
+      </c>
+      <c r="I9">
+        <v>1521.676416</v>
+      </c>
+      <c r="J9">
+        <v>-2.9066099699999999</v>
+      </c>
+      <c r="K9">
+        <v>2.006313984E-4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-5.091992782E-7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.2619697749999999E-10</v>
+      </c>
+      <c r="N9">
+        <v>5058010.8909999998</v>
+      </c>
+      <c r="O9">
+        <v>10.28966878</v>
+      </c>
+      <c r="P9">
+        <v>-3.4859668730000002</v>
+      </c>
+      <c r="Q9">
+        <v>6.5751586550000002E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-7.2906940460000003E-7</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3.6590354549999999E-10</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>6612841.5386088844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>251</v>
+      </c>
+      <c r="B10">
+        <v>629987.0736</v>
+      </c>
+      <c r="C10">
+        <v>3005.982321</v>
+      </c>
+      <c r="D10">
+        <v>-0.43180341950000001</v>
+      </c>
+      <c r="E10">
+        <v>-6.1015750690000001E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.4659182209999994E-8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-3.044096794E-10</v>
+      </c>
+      <c r="H10">
+        <v>4232311.4380000001</v>
+      </c>
+      <c r="I10">
+        <v>1463.602376</v>
+      </c>
+      <c r="J10">
+        <v>-2.9008953160000002</v>
+      </c>
+      <c r="K10">
+        <v>1.803855738E-4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-5.0319250179999997E-7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.141308581E-10</v>
+      </c>
+      <c r="N10">
+        <v>5057765.841</v>
+      </c>
+      <c r="O10">
+        <v>-59.235311899999999</v>
+      </c>
+      <c r="P10">
+        <v>-3.4666752330000001</v>
+      </c>
+      <c r="Q10">
+        <v>6.2871188660000002E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-7.1130506219999995E-7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3.4483986740000002E-10</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>6624978.4243811052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>261</v>
+      </c>
+      <c r="B11">
+        <v>660003.10719999997</v>
+      </c>
+      <c r="C11">
+        <v>2997.1635679999999</v>
+      </c>
+      <c r="D11">
+        <v>-0.45005437370000001</v>
+      </c>
+      <c r="E11">
+        <v>-6.0667295200000004E-4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.9631716029999998E-8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2.9683005269999999E-10</v>
+      </c>
+      <c r="H11">
+        <v>4246657.5470000003</v>
+      </c>
+      <c r="I11">
+        <v>1405.6365780000001</v>
+      </c>
+      <c r="J11">
+        <v>-2.8957845529999999</v>
+      </c>
+      <c r="K11">
+        <v>1.6036806480000001E-4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-4.9778080640000005E-7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.023879565E-10</v>
+      </c>
+      <c r="N11">
+        <v>5056827.4419999998</v>
+      </c>
+      <c r="O11">
+        <v>-128.38303099999999</v>
+      </c>
+      <c r="P11">
+        <v>-3.4482372620000001</v>
+      </c>
+      <c r="Q11">
+        <v>6.0059775099999995E-4</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-6.9456907270000002E-7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3.247570838E-10</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>6636355.038812343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>271</v>
+      </c>
+      <c r="B12">
+        <v>689929.13159999996</v>
+      </c>
+      <c r="C12">
+        <v>2987.980783</v>
+      </c>
+      <c r="D12">
+        <v>-0.4682097341</v>
+      </c>
+      <c r="E12">
+        <v>-6.0378219489999998E-4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.4962412419999998E-8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-2.9007645359999999E-10</v>
+      </c>
+      <c r="H12">
+        <v>4260424.49</v>
+      </c>
+      <c r="I12">
+        <v>1347.7670109999999</v>
+      </c>
+      <c r="J12">
+        <v>-2.8912711849999999</v>
+      </c>
+      <c r="K12">
+        <v>1.4055537989999999E-4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-4.9294888540000004E-7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9.0934354770000004E-11</v>
+      </c>
+      <c r="N12">
+        <v>5055199.3820000002</v>
+      </c>
+      <c r="O12">
+        <v>-197.1703589</v>
+      </c>
+      <c r="P12">
+        <v>-3.4306328719999999</v>
+      </c>
+      <c r="Q12">
+        <v>5.7313328100000005E-4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-6.7881420019999995E-7</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3.0558369020000001E-10</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>6646973.7349710716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>281</v>
+      </c>
+      <c r="B13">
+        <v>719761.51529999997</v>
+      </c>
+      <c r="C13">
+        <v>2978.4356990000001</v>
+      </c>
+      <c r="D13">
+        <v>-0.48628710780000001</v>
+      </c>
+      <c r="E13">
+        <v>-6.0147172199999995E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.0610940899999998E-8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-2.841107853E-10</v>
+      </c>
+      <c r="H13">
+        <v>4273613.1689999998</v>
+      </c>
+      <c r="I13">
+        <v>1289.9817869999999</v>
+      </c>
+      <c r="J13">
+        <v>-2.8873494110000002</v>
+      </c>
+      <c r="K13">
+        <v>1.2092460639999999E-4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-4.8868309129999995E-7</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7.9737578349999994E-11</v>
+      </c>
+      <c r="N13">
+        <v>5052885.1809999999</v>
+      </c>
+      <c r="O13">
+        <v>-265.61377640000001</v>
+      </c>
+      <c r="P13">
+        <v>-3.4138431530000002</v>
+      </c>
+      <c r="Q13">
+        <v>5.4628011880000001E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-6.6399666059999999E-7</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.8725303480000002E-10</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>6656836.6969249425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>291</v>
+      </c>
+      <c r="B14">
+        <v>749496.64260000002</v>
+      </c>
+      <c r="C14">
+        <v>2968.5297030000002</v>
+      </c>
+      <c r="D14">
+        <v>-0.50430372040000004</v>
+      </c>
+      <c r="E14">
+        <v>-5.9972959629999995E-4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.6538767569999998E-8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-2.7889923130000002E-10</v>
+      </c>
+      <c r="H14">
+        <v>4286224.3679999998</v>
+      </c>
+      <c r="I14">
+        <v>1232.2691259999999</v>
+      </c>
+      <c r="J14">
+        <v>-2.8840141130000001</v>
+      </c>
+      <c r="K14">
+        <v>1.014533458E-4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-4.8497136779999998E-7</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6.8766427079999995E-11</v>
+      </c>
+      <c r="N14">
+        <v>5049888.199</v>
+      </c>
+      <c r="O14">
+        <v>-333.72939700000001</v>
+      </c>
+      <c r="P14">
+        <v>-3.3978503189999998</v>
+      </c>
+      <c r="Q14">
+        <v>5.2000159270000005E-4</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-6.5007589049999998E-7</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2.6970288770000002E-10</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>6665945.9473134894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>301</v>
+      </c>
+      <c r="B15">
+        <v>779130.90989999997</v>
+      </c>
+      <c r="C15">
+        <v>2958.2638419999998</v>
+      </c>
+      <c r="D15">
+        <v>-0.52227646230000002</v>
+      </c>
+      <c r="E15">
+        <v>-5.9854538980000003E-4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.270894839E-8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-2.7441196750000001E-10</v>
+      </c>
+      <c r="H15">
+        <v>4298258.7539999997</v>
+      </c>
+      <c r="I15">
+        <v>1174.6173429999999</v>
+      </c>
+      <c r="J15">
+        <v>-2.881260835</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8.2119650530000003E-5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-4.8180319009999999E-7</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5.7990815860000002E-11</v>
+      </c>
+      <c r="N15">
+        <v>5046211.6330000004</v>
+      </c>
+      <c r="O15">
+        <v>-401.53298969999997</v>
+      </c>
+      <c r="P15">
+        <v>-3.3826376630000001</v>
+      </c>
+      <c r="Q15">
+        <v>4.9426259269999995E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-6.3701433549999996E-7</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2.5287504880000002E-10</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>6674303.3446288435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>311</v>
+      </c>
+      <c r="B16">
+        <v>808660.72239999997</v>
+      </c>
+      <c r="C16">
+        <v>2947.6388270000002</v>
+      </c>
+      <c r="D16">
+        <v>-0.54022193279999997</v>
+      </c>
+      <c r="E16">
+        <v>-5.9791012350000005E-4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.0859360340000007E-9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-2.7062291029999998E-10</v>
+      </c>
+      <c r="H16">
+        <v>4309716.8789999997</v>
+      </c>
+      <c r="I16">
+        <v>1117.0148380000001</v>
+      </c>
+      <c r="J16">
+        <v>-2.879085774</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6.2901964650000002E-5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-4.7916951310000002E-7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4.738162367E-11</v>
+      </c>
+      <c r="N16">
+        <v>5041858.5269999998</v>
+      </c>
+      <c r="O16">
+        <v>-469.03999959999999</v>
+      </c>
+      <c r="P16">
+        <v>-3.3681895050000001</v>
+      </c>
+      <c r="Q16">
+        <v>4.6902945409999999E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-6.2477725800000002E-7</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2.3671498890000002E-10</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>6681910.591093882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>838082.49060000002</v>
+      </c>
+      <c r="C17">
+        <v>2936.6550379999999</v>
+      </c>
+      <c r="D17">
+        <v>-0.55815648289999997</v>
+      </c>
+      <c r="E17">
+        <v>-5.978162157E-4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-4.3646014699999997E-9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-2.6750949579999999E-10</v>
+      </c>
+      <c r="H17">
+        <v>4320599.1770000001</v>
+      </c>
+      <c r="I17">
+        <v>1059.450079</v>
+      </c>
+      <c r="J17">
+        <v>-2.8774857699999998</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.3779065030000003E-5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-4.7706272619999999E-7</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.6910549900000002E-11</v>
+      </c>
+      <c r="N17">
+        <v>5036831.7709999997</v>
+      </c>
+      <c r="O17">
+        <v>-536.26556819999996</v>
+      </c>
+      <c r="P17">
+        <v>-3.3544911599999998</v>
+      </c>
+      <c r="Q17">
+        <v>4.4426984819999999E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-6.1333256180000004E-7</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.211715214E-10</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>6688769.2289911136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>331</v>
+      </c>
+      <c r="B18">
+        <v>867392.62749999994</v>
+      </c>
+      <c r="C18">
+        <v>2925.3125319999999</v>
+      </c>
+      <c r="D18">
+        <v>-0.57609625659999997</v>
+      </c>
+      <c r="E18">
+        <v>-5.9825743619999999E-4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1.767595189E-8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-2.6505248979999999E-10</v>
+      </c>
+      <c r="H18">
+        <v>4330905.9680000003</v>
+      </c>
+      <c r="I18">
+        <v>1001.91159</v>
+      </c>
+      <c r="J18">
+        <v>-2.8764582920000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.473000492E-5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-4.7547661670000002E-7</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.6549976869999999E-11</v>
+      </c>
+      <c r="N18">
+        <v>5031134.1050000004</v>
+      </c>
+      <c r="O18">
+        <v>-603.2245527</v>
+      </c>
+      <c r="P18">
+        <v>-3.3415288909999998</v>
+      </c>
+      <c r="Q18">
+        <v>4.1995268009999999E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-6.0265063330000004E-7</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2.061965011E-10</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>6694880.645418074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>341</v>
+      </c>
+      <c r="B19">
+        <v>896587.54480000003</v>
+      </c>
+      <c r="C19">
+        <v>2913.611046</v>
+      </c>
+      <c r="D19">
+        <v>-0.59405723079999995</v>
+      </c>
+      <c r="E19">
+        <v>-5.9922886839999996E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-3.088052107E-8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-2.6323582429999998E-10</v>
+      </c>
+      <c r="H19">
+        <v>4340637.4579999996</v>
+      </c>
+      <c r="I19">
+        <v>944.38794299999995</v>
+      </c>
+      <c r="J19">
+        <v>-2.8760014379999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5.7340586579999996E-6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-4.7440633820000002E-7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.627283735E-11</v>
+      </c>
+      <c r="N19">
+        <v>5024768.12</v>
+      </c>
+      <c r="O19">
+        <v>-669.93154500000003</v>
+      </c>
+      <c r="P19">
+        <v>-3.3292898750000002</v>
+      </c>
+      <c r="Q19">
+        <v>3.9604799209999998E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-5.9270419540000001E-7</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.9174454740000001E-10</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>6700246.0721268682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>351</v>
+      </c>
+      <c r="B20">
+        <v>925663.65</v>
+      </c>
+      <c r="C20">
+        <v>2901.5499960000002</v>
+      </c>
+      <c r="D20">
+        <v>-0.61205525409999995</v>
+      </c>
+      <c r="E20">
+        <v>-6.0072687670000003E-4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-4.4009987690000001E-8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-2.6204646020000001E-10</v>
+      </c>
+      <c r="H20">
+        <v>4349793.7379999999</v>
+      </c>
+      <c r="I20">
+        <v>886.86773770000002</v>
+      </c>
+      <c r="J20">
+        <v>-2.8761139230000001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-1.322933246E-5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-4.7384838669999998E-7</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6.0524862710000002E-12</v>
+      </c>
+      <c r="N20">
+        <v>5017736.2659999998</v>
+      </c>
+      <c r="O20">
+        <v>-736.40088930000002</v>
+      </c>
+      <c r="P20">
+        <v>-3.317762176</v>
+      </c>
+      <c r="Q20">
+        <v>3.725268733E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-5.8346817659999999E-7</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.7777278940000001E-10</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>6704866.5901125101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>361</v>
+      </c>
+      <c r="B21">
+        <v>954617.3432</v>
+      </c>
+      <c r="C21">
+        <v>2889.1284839999998</v>
+      </c>
+      <c r="D21">
+        <v>-0.63010608499999998</v>
+      </c>
+      <c r="E21">
+        <v>-6.0274908080000002E-4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-5.7095451770000003E-8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-2.6147427290000002E-10</v>
+      </c>
+      <c r="H21">
+        <v>4358374.7860000003</v>
+      </c>
+      <c r="I21">
+        <v>829.33959530000004</v>
+      </c>
+      <c r="J21">
+        <v>-2.8767950770000001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-3.2180613549999998E-5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-4.7380058239999999E-7</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-4.1374244609999998E-12</v>
+      </c>
+      <c r="N21">
+        <v>5010040.8470000001</v>
+      </c>
+      <c r="O21">
+        <v>-802.64669979999996</v>
+      </c>
+      <c r="P21">
+        <v>-3.3069347069999999</v>
+      </c>
+      <c r="Q21">
+        <v>3.493613732E-4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-5.7491959100000001E-7</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.6424063000000001E-10</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="0"/>
+        <v>6708743.1263827095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>371</v>
+      </c>
+      <c r="B22">
+        <v>983445.01410000003</v>
+      </c>
+      <c r="C22">
+        <v>2876.345296</v>
+      </c>
+      <c r="D22">
+        <v>-0.64822542910000003</v>
+      </c>
+      <c r="E22">
+        <v>-6.0529433509999998E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-7.0167578010000006E-8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-2.6151196139999999E-10</v>
+      </c>
+      <c r="H22">
+        <v>4366380.466</v>
+      </c>
+      <c r="I22">
+        <v>771.79214420000005</v>
+      </c>
+      <c r="J22">
+        <v>-2.8780448430000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-5.1140168769999998E-5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-4.7426205809999998E-7</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-1.4323068870000001E-11</v>
+      </c>
+      <c r="N22">
+        <v>5001684.03</v>
+      </c>
+      <c r="O22">
+        <v>-868.68287699999996</v>
+      </c>
+      <c r="P22">
+        <v>-3.2967972080000001</v>
+      </c>
+      <c r="Q22">
+        <v>3.2652442130000001E-4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>-5.6703743039999995E-7</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.511095281E-10</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>6711876.4593503634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>381</v>
+      </c>
+      <c r="B23">
+        <v>1012143.039</v>
+      </c>
+      <c r="C23">
+        <v>2863.1989050000002</v>
+      </c>
+      <c r="D23">
+        <v>-0.66642897599999995</v>
+      </c>
+      <c r="E23">
+        <v>-6.0836271420000002E-4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-8.325673515E-8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-2.621549773E-10</v>
+      </c>
+      <c r="H23">
+        <v>4373810.5269999998</v>
+      </c>
+      <c r="I23">
+        <v>714.21400749999998</v>
+      </c>
+      <c r="J23">
+        <v>-2.8798637739999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-7.0128373769999994E-5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-4.752332535E-7</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-2.4530568519999999E-11</v>
+      </c>
+      <c r="N23">
+        <v>4992667.8430000003</v>
+      </c>
+      <c r="O23">
+        <v>-934.52312440000003</v>
+      </c>
+      <c r="P23">
+        <v>-3.2873402189999998</v>
+      </c>
+      <c r="Q23">
+        <v>3.0398974910000003E-4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-5.5980256630000003E-7</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.3834279590000001E-10</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>6714267.2160123661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>391</v>
+      </c>
+      <c r="B24">
+        <v>1040707.776</v>
+      </c>
+      <c r="C24">
+        <v>2849.6874710000002</v>
+      </c>
+      <c r="D24">
+        <v>-0.68473243569999998</v>
+      </c>
+      <c r="E24">
+        <v>-6.1195550379999995E-4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-9.6393132260000003E-8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-2.6340147580000002E-10</v>
+      </c>
+      <c r="H24">
+        <v>4380664.6059999997</v>
+      </c>
+      <c r="I24">
+        <v>656.59379139999999</v>
+      </c>
+      <c r="J24">
+        <v>-2.8822530359999998</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-8.9165647910000002E-5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-4.7671591560000002E-7</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-3.4786113600000002E-11</v>
+      </c>
+      <c r="N24">
+        <v>4982994.176</v>
+      </c>
+      <c r="O24">
+        <v>-1000.180964</v>
+      </c>
+      <c r="P24">
+        <v>-3.2785550560000001</v>
+      </c>
+      <c r="Q24">
+        <v>2.8173181740000003E-4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-5.5319766249999999E-7</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1.2590541009999999E-10</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>6715915.873753774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>401</v>
+      </c>
+      <c r="B25">
+        <v>1069135.564</v>
+      </c>
+      <c r="C25">
+        <v>2835.808837</v>
+      </c>
+      <c r="D25">
+        <v>-0.70315157490000002</v>
+      </c>
+      <c r="E25">
+        <v>-6.1607519699999997E-4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0960695310000001E-7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-2.6525228529999999E-10</v>
+      </c>
+      <c r="H25">
+        <v>4386942.2240000004</v>
+      </c>
+      <c r="I25">
+        <v>598.92007239999998</v>
+      </c>
+      <c r="J25">
+        <v>-2.885214408</v>
+      </c>
+      <c r="K25">
+        <v>-1.082725067E-4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-4.7871310510000004E-7</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-4.511608449E-11</v>
+      </c>
+      <c r="N25">
+        <v>4972664.7869999995</v>
+      </c>
+      <c r="O25">
+        <v>-1065.669752</v>
+      </c>
+      <c r="P25">
+        <v>-3.270433792</v>
+      </c>
+      <c r="Q25">
+        <v>2.5972574579999997E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-5.4720709589999997E-7</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1.137638358E-10</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>6716822.7619011523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>411</v>
+      </c>
+      <c r="B26">
+        <v>1097422.72</v>
+      </c>
+      <c r="C26">
+        <v>2821.5605310000001</v>
+      </c>
+      <c r="D26">
+        <v>-0.72170225320000003</v>
+      </c>
+      <c r="E26">
+        <v>-6.2072549609999998E-4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.2292848930000001E-7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-2.6771089680000003E-10</v>
+      </c>
+      <c r="H26">
+        <v>4392642.79</v>
+      </c>
+      <c r="I26">
+        <v>541.18138529999999</v>
+      </c>
+      <c r="J26">
+        <v>-2.8887502889999999</v>
+      </c>
+      <c r="K26">
+        <v>-1.2746961449999999E-4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-4.8122920909999999E-7</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-5.5547174600000002E-11</v>
+      </c>
+      <c r="N26">
+        <v>4961681.3</v>
+      </c>
+      <c r="O26">
+        <v>-1131.0026929999999</v>
+      </c>
+      <c r="P26">
+        <v>-3.262969236</v>
+      </c>
+      <c r="Q26">
+        <v>2.379472458E-4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>-5.4181688630000001E-7</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1.0188586049999999E-10</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>6716988.062344675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>421</v>
+      </c>
+      <c r="B27">
+        <v>1125565.5330000001</v>
+      </c>
+      <c r="C27">
+        <v>2806.9397629999999</v>
+      </c>
+      <c r="D27">
+        <v>-0.7404004595</v>
+      </c>
+      <c r="E27">
+        <v>-6.2591131930000001E-4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.3638827390000001E-7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-2.7078347249999998E-10</v>
+      </c>
+      <c r="H27">
+        <v>4397765.5970000001</v>
+      </c>
+      <c r="I27">
+        <v>483.36621100000002</v>
+      </c>
+      <c r="J27">
+        <v>-2.892863696</v>
+      </c>
+      <c r="K27">
+        <v>-1.4677783799999999E-4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-4.8426995980000001E-7</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-6.6106515389999997E-11</v>
+      </c>
+      <c r="N27">
+        <v>4950045.2089999998</v>
+      </c>
+      <c r="O27">
+        <v>-1196.1928559999999</v>
+      </c>
+      <c r="P27">
+        <v>-3.2561549190000001</v>
+      </c>
+      <c r="Q27">
+        <v>2.1637255620000001E-4</v>
+      </c>
+      <c r="R27" s="1">
+        <v>-5.3701463449999999E-7</v>
+      </c>
+      <c r="S27" s="1">
+        <v>9.0240438490000001E-11</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>6716411.8088737074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>431</v>
+      </c>
+      <c r="B28">
+        <v>1153560.264</v>
+      </c>
+      <c r="C28">
+        <v>2791.9434209999999</v>
+      </c>
+      <c r="D28">
+        <v>-0.75926234869999998</v>
+      </c>
+      <c r="E28">
+        <v>-6.3163881319999997E-4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.5001721540000001E-7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-2.7447887389999999E-10</v>
+      </c>
+      <c r="H28">
+        <v>4402309.8210000005</v>
+      </c>
+      <c r="I28">
+        <v>425.46296330000001</v>
+      </c>
+      <c r="J28">
+        <v>-2.8975582809999998</v>
+      </c>
+      <c r="K28">
+        <v>-1.6621830050000001E-4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-4.8784245939999996E-7</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-7.6821804540000003E-11</v>
+      </c>
+      <c r="N28">
+        <v>4937757.8760000002</v>
+      </c>
+      <c r="O28">
+        <v>-1261.2531859999999</v>
+      </c>
+      <c r="P28">
+        <v>-3.2499850769999998</v>
+      </c>
+      <c r="Q28">
+        <v>1.9497838130000001E-4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>-5.3278946749999997E-7</v>
+      </c>
+      <c r="S28" s="1">
+        <v>7.8797543300000002E-11</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>6715093.8850289229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>441</v>
+      </c>
+      <c r="B29">
+        <v>1181403.138</v>
+      </c>
+      <c r="C29">
+        <v>2776.5680689999999</v>
+      </c>
+      <c r="D29">
+        <v>-0.77830427859999995</v>
+      </c>
+      <c r="E29">
+        <v>-6.3791537059999998E-4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1.6384673360000001E-7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-2.78808708E-10</v>
+      </c>
+      <c r="H29">
+        <v>4406274.5240000002</v>
+      </c>
+      <c r="I29">
+        <v>367.45997699999998</v>
+      </c>
+      <c r="J29">
+        <v>-2.9028383309999999</v>
+      </c>
+      <c r="K29">
+        <v>-1.858124374E-4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-4.9195521210000004E-7</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-8.7721438119999995E-11</v>
+      </c>
+      <c r="N29">
+        <v>4924820.5350000001</v>
+      </c>
+      <c r="O29">
+        <v>-1326.196522</v>
+      </c>
+      <c r="P29">
+        <v>-3.2444546399999998</v>
+      </c>
+      <c r="Q29">
+        <v>1.737418304E-4</v>
+      </c>
+      <c r="R29" s="1">
+        <v>-5.2913199100000005E-7</v>
+      </c>
+      <c r="S29" s="1">
+        <v>6.7528027290000001E-11</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>6713034.0277169282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>451</v>
+      </c>
+      <c r="B30">
+        <v>1209090.3489999999</v>
+      </c>
+      <c r="C30">
+        <v>2760.8099390000002</v>
+      </c>
+      <c r="D30">
+        <v>-0.79754284779999995</v>
+      </c>
+      <c r="E30">
+        <v>-6.4474965350000001E-4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1.779088988E-7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-2.8378739499999999E-10</v>
+      </c>
+      <c r="H30">
+        <v>4409658.6490000002</v>
+      </c>
+      <c r="I30">
+        <v>309.34549440000001</v>
+      </c>
+      <c r="J30">
+        <v>-2.9087087820000002</v>
+      </c>
+      <c r="K30">
+        <v>-2.0558205269999999E-4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-4.966181622E-7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-9.883464793E-11</v>
+      </c>
+      <c r="N30">
+        <v>4911234.2929999996</v>
+      </c>
+      <c r="O30">
+        <v>-1391.035605</v>
+      </c>
+      <c r="P30">
+        <v>-3.239559217</v>
+      </c>
+      <c r="Q30">
+        <v>1.5264035970000001E-4</v>
+      </c>
+      <c r="R30" s="1">
+        <v>-5.2603424889999999E-7</v>
+      </c>
+      <c r="S30" s="1">
+        <v>5.6403487789999998E-11</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>6710231.8256141236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>461</v>
+      </c>
+      <c r="B31">
+        <v>1236618.048</v>
+      </c>
+      <c r="C31">
+        <v>2744.6649320000001</v>
+      </c>
+      <c r="D31">
+        <v>-0.81699493420000002</v>
+      </c>
+      <c r="E31">
+        <v>-6.5215162219999998E-4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1.922365743E-7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-2.8943225500000002E-10</v>
+      </c>
+      <c r="H31">
+        <v>4412461.023</v>
+      </c>
+      <c r="I31">
+        <v>251.10765280000001</v>
+      </c>
+      <c r="J31">
+        <v>-2.9151752310000001</v>
+      </c>
+      <c r="K31">
+        <v>-2.2554937789999999E-4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-5.0184273940000002E-7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-1.101916449E-10</v>
+      </c>
+      <c r="N31">
+        <v>4897000.1279999996</v>
+      </c>
+      <c r="O31">
+        <v>-1455.783099</v>
+      </c>
+      <c r="P31">
+        <v>-3.2352950900000002</v>
+      </c>
+      <c r="Q31">
+        <v>1.316517154E-4</v>
+      </c>
+      <c r="R31" s="1">
+        <v>-5.2348968930000003E-7</v>
+      </c>
+      <c r="S31" s="1">
+        <v>4.5396138370000001E-11</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>6706686.7177292211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>471</v>
+      </c>
+      <c r="B32">
+        <v>1263982.3430000001</v>
+      </c>
+      <c r="C32">
+        <v>2728.128604</v>
+      </c>
+      <c r="D32">
+        <v>-0.83667773450000005</v>
+      </c>
+      <c r="E32">
+        <v>-6.6013256979999995E-4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-2.0686356419999999E-7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-2.9576361629999999E-10</v>
+      </c>
+      <c r="H32">
+        <v>4414680.3509999998</v>
+      </c>
+      <c r="I32">
+        <v>192.73447039999999</v>
+      </c>
+      <c r="J32">
+        <v>-2.9222439489999998</v>
+      </c>
+      <c r="K32">
+        <v>-2.457371323E-4</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-5.0764191139999999E-7</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-1.2182376949999999E-10</v>
+      </c>
+      <c r="N32">
+        <v>4882118.8940000003</v>
+      </c>
+      <c r="O32">
+        <v>-1520.4515960000001</v>
+      </c>
+      <c r="P32">
+        <v>-3.2316592059999998</v>
+      </c>
+      <c r="Q32">
+        <v>1.107538785E-4</v>
+      </c>
+      <c r="R32" s="1">
+        <v>-5.2149313699999999E-7</v>
+      </c>
+      <c r="S32" s="1">
+        <v>3.4478684620000003E-11</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="0"/>
+        <v>6702397.9932612944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>481</v>
+      </c>
+      <c r="B33">
+        <v>1291179.2990000001</v>
+      </c>
+      <c r="C33">
+        <v>2711.1961670000001</v>
+      </c>
+      <c r="D33">
+        <v>-0.85660880439999998</v>
+      </c>
+      <c r="E33">
+        <v>-6.6870516290000004E-4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-2.218247668E-7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-3.028049462E-10</v>
+      </c>
+      <c r="H33">
+        <v>4416315.22</v>
+      </c>
+      <c r="I33">
+        <v>134.21383370000001</v>
+      </c>
+      <c r="J33">
+        <v>-2.9299218960000002</v>
+      </c>
+      <c r="K33">
+        <v>-2.661685855E-4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-5.1403024479999995E-7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-1.3376365130000001E-10</v>
+      </c>
+      <c r="N33">
+        <v>4866591.318</v>
+      </c>
+      <c r="O33">
+        <v>-1585.053639</v>
+      </c>
+      <c r="P33">
+        <v>-3.228649168</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>8.9925009379999995E-5</v>
+      </c>
+      <c r="R33" s="1">
+        <v>-5.2004077139999996E-7</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2.3624203300000001E-11</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="0"/>
+        <v>6697364.7922897814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>491</v>
+      </c>
+      <c r="B34">
+        <v>1318204.929</v>
+      </c>
+      <c r="C34">
+        <v>2693.8624770000001</v>
+      </c>
+      <c r="D34">
+        <v>-0.87680610110000001</v>
+      </c>
+      <c r="E34">
+        <v>-6.7788348869999996E-4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-2.371563356E-7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-3.1058300489999999E-10</v>
+      </c>
+      <c r="H34">
+        <v>4417364.0949999997</v>
+      </c>
+      <c r="I34">
+        <v>75.533482370000002</v>
+      </c>
+      <c r="J34">
+        <v>-2.9382167400000001</v>
+      </c>
+      <c r="K34">
+        <v>-2.8686762289999998E-4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-5.21023973E-7</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-1.4604537699999999E-10</v>
+      </c>
+      <c r="N34">
+        <v>4850418.0010000002</v>
+      </c>
+      <c r="O34">
+        <v>-1649.6017240000001</v>
+      </c>
+      <c r="P34">
+        <v>-3.2262632330000001</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>6.9143394740000004E-5</v>
+      </c>
+      <c r="R34" s="1">
+        <v>-5.1913011169999999E-7</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1.280602445E-11</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="0"/>
+        <v>6691586.102491688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>501</v>
+      </c>
+      <c r="B35">
+        <v>1345055.193</v>
+      </c>
+      <c r="C35">
+        <v>2676.122026</v>
+      </c>
+      <c r="D35">
+        <v>-0.89728802620000003</v>
+      </c>
+      <c r="E35">
+        <v>-6.8768310829999996E-4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-2.528958479E-7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-3.191280247E-10</v>
+      </c>
+      <c r="H35">
+        <v>4417825.3159999996</v>
+      </c>
+      <c r="I35">
+        <v>16.680995889999998</v>
+      </c>
+      <c r="J35">
+        <v>-2.9471368739999999</v>
+      </c>
+      <c r="K35">
+        <v>-3.0785881399999999E-4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-5.2864107419999997E-7</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-1.5870467099999999E-10</v>
+      </c>
+      <c r="N35">
+        <v>4833599.4220000003</v>
+      </c>
+      <c r="O35">
+        <v>-1714.1083209999999</v>
+      </c>
+      <c r="P35">
+        <v>-3.2245003080000001</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4.8387393779999998E-5</v>
+      </c>
+      <c r="R35" s="1">
+        <v>-5.1876000620000003E-7</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1.9976152140000001E-12</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="0"/>
+        <v>6685060.7601775397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>511</v>
+      </c>
+      <c r="B36">
+        <v>1371725.9939999999</v>
+      </c>
+      <c r="C36">
+        <v>2657.9689330000001</v>
+      </c>
+      <c r="D36">
+        <v>-0.91807347100000003</v>
+      </c>
+      <c r="E36">
+        <v>-6.9812111730000001E-4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-2.6908248370000002E-7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-3.2847391630000002E-10</v>
+      </c>
+      <c r="H36">
+        <v>4417697.0999999996</v>
+      </c>
+      <c r="I36">
+        <v>-42.356221750000003</v>
+      </c>
+      <c r="J36">
+        <v>-2.956691443</v>
+      </c>
+      <c r="K36">
+        <v>-3.2916748369999998E-4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-5.3690135770000004E-7</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-1.7177908749999999E-10</v>
+      </c>
+      <c r="N36">
+        <v>4816135.932</v>
+      </c>
+      <c r="O36">
+        <v>-1778.5858860000001</v>
+      </c>
+      <c r="P36">
+        <v>-3.2233599489999998</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2.7635385260000001E-5</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-5.1893062910000003E-7</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-8.827535016E-12</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="0"/>
+        <v>6677787.4468618128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>521</v>
+      </c>
+      <c r="B37">
+        <v>1398213.176</v>
+      </c>
+      <c r="C37">
+        <v>2639.3969350000002</v>
+      </c>
+      <c r="D37">
+        <v>-0.9391818636</v>
+      </c>
+      <c r="E37">
+        <v>-7.0921621400000005E-4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-2.8575721539999998E-7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-3.3865850389999998E-10</v>
+      </c>
+      <c r="H37">
+        <v>4416977.534</v>
+      </c>
+      <c r="I37">
+        <v>-101.590957</v>
+      </c>
+      <c r="J37">
+        <v>-2.9668903599999998</v>
+      </c>
+      <c r="K37">
+        <v>-3.508197872E-4</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-5.4582656019999996E-7</v>
+      </c>
+      <c r="M37" s="1">
+        <v>-1.8530821710000001E-10</v>
+      </c>
+      <c r="N37">
+        <v>4798027.7589999996</v>
+      </c>
+      <c r="O37">
+        <v>-1843.0468699999999</v>
+      </c>
+      <c r="P37">
+        <v>-3.2228423610000001</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>6.8657144590000002E-6</v>
+      </c>
+      <c r="R37" s="1">
+        <v>-5.1964348189999997E-7</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-1.969602908E-11</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="0"/>
+        <v>6669764.6883181185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>531</v>
+      </c>
+      <c r="B38">
+        <v>1424512.5149999999</v>
+      </c>
+      <c r="C38">
+        <v>2620.3993730000002</v>
+      </c>
+      <c r="D38">
+        <v>-0.9606332179</v>
+      </c>
+      <c r="E38">
+        <v>-7.2098877439999995E-4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-3.029630099E-7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-3.4972379219999999E-10</v>
+      </c>
+      <c r="H38">
+        <v>4415664.5789999999</v>
+      </c>
+      <c r="I38">
+        <v>-161.03620269999999</v>
+      </c>
+      <c r="J38">
+        <v>-2.9777443369999999</v>
+      </c>
+      <c r="K38">
+        <v>-3.7284278989999997E-4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-5.5544045400000001E-7</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-1.9933390999999999E-10</v>
+      </c>
+      <c r="N38">
+        <v>4779275.0080000004</v>
+      </c>
+      <c r="O38">
+        <v>-1907.5037380000001</v>
+      </c>
+      <c r="P38">
+        <v>-3.2229483999999999</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>-1.394336009E-5</v>
+      </c>
+      <c r="R38" s="1">
+        <v>-5.2090140099999996E-7</v>
+      </c>
+      <c r="S38" s="1">
+        <v>-3.0634676790000001E-11</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>6660990.8558502216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>541</v>
+      </c>
+      <c r="B39">
+        <v>1450619.7209999999</v>
+      </c>
+      <c r="C39">
+        <v>2600.9691819999998</v>
+      </c>
+      <c r="D39">
+        <v>-0.98244818550000002</v>
+      </c>
+      <c r="E39">
+        <v>-7.3346093689999998E-4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-3.2074504499999998E-7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-3.617162674E-10</v>
+      </c>
+      <c r="H39">
+        <v>4413756.0640000002</v>
+      </c>
+      <c r="I39">
+        <v>-220.705174</v>
+      </c>
+      <c r="J39">
+        <v>-2.9892649140000001</v>
+      </c>
+      <c r="K39">
+        <v>-3.9526455059999999E-4</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-5.6576896490000005E-7</v>
+      </c>
+      <c r="M39" s="1">
+        <v>-2.1390051699999999E-10</v>
+      </c>
+      <c r="N39">
+        <v>4759877.6569999997</v>
+      </c>
+      <c r="O39">
+        <v>-1971.9689739999999</v>
+      </c>
+      <c r="P39">
+        <v>-3.2236795759999999</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>-3.48137202E-5</v>
+      </c>
+      <c r="R39" s="1">
+        <v>-5.2270857070000005E-7</v>
+      </c>
+      <c r="S39" s="1">
+        <v>-4.1670610770000001E-11</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="0"/>
+        <v>6651464.160397972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>551</v>
+      </c>
+      <c r="B40">
+        <v>1476530.4310000001</v>
+      </c>
+      <c r="C40">
+        <v>2581.0988790000001</v>
+      </c>
+      <c r="D40">
+        <v>-1.0046481089999999</v>
+      </c>
+      <c r="E40">
+        <v>-7.4665669499999999E-4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-3.3915094190000002E-7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-3.7468723690000002E-10</v>
+      </c>
+      <c r="H40">
+        <v>4411249.6849999996</v>
+      </c>
+      <c r="I40">
+        <v>-280.61132550000002</v>
+      </c>
+      <c r="J40">
+        <v>-3.0014644879999999</v>
+      </c>
+      <c r="K40">
+        <v>-4.1811421029999999E-4</v>
+      </c>
+      <c r="L40" s="1">
+        <v>-5.7684030430000002E-7</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-2.2905515029999999E-10</v>
+      </c>
+      <c r="N40">
+        <v>4739835.5590000004</v>
+      </c>
+      <c r="O40">
+        <v>-2036.4551019999999</v>
+      </c>
+      <c r="P40">
+        <v>-3.2250380569999999</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>-5.5767442330000003E-5</v>
+      </c>
+      <c r="R40" s="1">
+        <v>-5.2507054270000003E-7</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-5.2831403929999999E-11</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="0"/>
+        <v>6641182.6524680443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>561</v>
+      </c>
+      <c r="B41">
+        <v>1502240.2050000001</v>
+      </c>
+      <c r="C41">
+        <v>2560.7805450000001</v>
+      </c>
+      <c r="D41">
+        <v>-1.0272550819999999</v>
+      </c>
+      <c r="E41">
+        <v>-7.606019999E-4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-3.582310156E-7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-3.8869320949999999E-10</v>
+      </c>
+      <c r="H41">
+        <v>4408143.0010000002</v>
+      </c>
+      <c r="I41">
+        <v>-340.76836830000002</v>
+      </c>
+      <c r="J41">
+        <v>-3.0143563480000002</v>
+      </c>
+      <c r="K41">
+        <v>-4.4142208659999997E-4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-5.8868511439999995E-7</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-2.4484796820000002E-10</v>
+      </c>
+      <c r="N41">
+        <v>4719148.443</v>
+      </c>
+      <c r="O41">
+        <v>-2100.9746970000001</v>
+      </c>
+      <c r="P41">
+        <v>-3.2270266790000002</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-7.6826852749999994E-5</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-5.2799426060000002E-7</v>
+      </c>
+      <c r="S41" s="1">
+        <v>-6.4145189490000005E-11</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="0"/>
+        <v>6630144.2199889626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>571</v>
+      </c>
+      <c r="B42">
+        <v>1527744.5209999999</v>
+      </c>
+      <c r="C42">
+        <v>2540.0058100000001</v>
+      </c>
+      <c r="D42">
+        <v>-1.0502920039999999</v>
+      </c>
+      <c r="E42">
+        <v>-7.7532487410000004E-4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-3.780385451E-7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-4.0379632229999998E-10</v>
+      </c>
+      <c r="H42">
+        <v>4404433.4349999996</v>
+      </c>
+      <c r="I42">
+        <v>-401.19028889999998</v>
+      </c>
+      <c r="J42">
+        <v>-3.027954711</v>
+      </c>
+      <c r="K42">
+        <v>-4.6521977409999998E-4</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-6.0133662729999996E-7</v>
+      </c>
+      <c r="M42" s="1">
+        <v>-2.6133248440000002E-10</v>
+      </c>
+      <c r="N42">
+        <v>4697815.9110000003</v>
+      </c>
+      <c r="O42">
+        <v>-2165.5403930000002</v>
+      </c>
+      <c r="P42">
+        <v>-3.2296489510000002</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>-9.8014583850000004E-5</v>
+      </c>
+      <c r="R42" s="1">
+        <v>-5.3148809130000003E-7</v>
+      </c>
+      <c r="S42" s="1">
+        <v>-7.5640784189999997E-11</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="0"/>
+        <v>6618346.586454669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>581</v>
+      </c>
+      <c r="B43">
+        <v>1553038.7709999999</v>
+      </c>
+      <c r="C43">
+        <v>2518.76584</v>
+      </c>
+      <c r="D43">
+        <v>-1.073782652</v>
+      </c>
+      <c r="E43">
+        <v>-7.9085553520000002E-4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-3.9863006710000002E-7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-4.2006481829999997E-10</v>
+      </c>
+      <c r="H43">
+        <v>4400118.2649999997</v>
+      </c>
+      <c r="I43">
+        <v>-461.8913675</v>
+      </c>
+      <c r="J43">
+        <v>-3.0422747619999999</v>
+      </c>
+      <c r="K43">
+        <v>-4.8954025130000002E-4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>-6.1483084220000003E-7</v>
+      </c>
+      <c r="M43" s="1">
+        <v>-2.7856590620000002E-10</v>
+      </c>
+      <c r="N43">
+        <v>4675837.4390000002</v>
+      </c>
+      <c r="O43">
+        <v>-2230.164906</v>
+      </c>
+      <c r="P43">
+        <v>-3.232909067</v>
+      </c>
+      <c r="Q43">
+        <v>-1.193536317E-4</v>
+      </c>
+      <c r="R43" s="1">
+        <v>-5.3556186229999995E-7</v>
+      </c>
+      <c r="S43" s="1">
+        <v>-8.7347815499999997E-11</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="0"/>
+        <v>6605787.3055503294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>591</v>
+      </c>
+      <c r="B44">
+        <v>1578118.2560000001</v>
+      </c>
+      <c r="C44">
+        <v>2497.0513150000002</v>
+      </c>
+      <c r="D44">
+        <v>-1.097751739</v>
+      </c>
+      <c r="E44">
+        <v>-8.0722653250000001E-4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-4.200656939E-7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-4.3757358039999998E-10</v>
+      </c>
+      <c r="H44">
+        <v>4395194.6279999996</v>
+      </c>
+      <c r="I44">
+        <v>-522.88619800000004</v>
+      </c>
+      <c r="J44">
+        <v>-3.0573326980000002</v>
+      </c>
+      <c r="K44">
+        <v>-5.1441799540000003E-4</v>
+      </c>
+      <c r="L44" s="1">
+        <v>-6.2920671829999997E-7</v>
+      </c>
+      <c r="M44" s="1">
+        <v>-2.9660950520000001E-10</v>
+      </c>
+      <c r="N44">
+        <v>4653212.375</v>
+      </c>
+      <c r="O44">
+        <v>-2294.8610399999998</v>
+      </c>
+      <c r="P44">
+        <v>-3.2368119160000002</v>
+      </c>
+      <c r="Q44">
+        <v>-1.408674156E-4</v>
+      </c>
+      <c r="R44" s="1">
+        <v>-5.4022690560000003E-7</v>
+      </c>
+      <c r="S44" s="1">
+        <v>-9.9296853480000006E-11</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="0"/>
+        <v>6592463.762113044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>601</v>
+      </c>
+      <c r="B45">
+        <v>1602978.183</v>
+      </c>
+      <c r="C45">
+        <v>2474.85241</v>
+      </c>
+      <c r="D45">
+        <v>-1.1222249959999999</v>
+      </c>
+      <c r="E45">
+        <v>-8.2447289729999996E-4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-4.4240946039999998E-7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-4.564047282E-10</v>
+      </c>
+      <c r="H45">
+        <v>4389659.5120000001</v>
+      </c>
+      <c r="I45">
+        <v>-584.18970899999999</v>
+      </c>
+      <c r="J45">
+        <v>-3.073145775</v>
+      </c>
+      <c r="K45">
+        <v>-5.3988910440000003E-4</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-6.4450638849999997E-7</v>
+      </c>
+      <c r="M45" s="1">
+        <v>-3.1552902309999999E-10</v>
+      </c>
+      <c r="N45">
+        <v>4629939.9369999999</v>
+      </c>
+      <c r="O45">
+        <v>-2359.641705</v>
+      </c>
+      <c r="P45">
+        <v>-3.2413630979999999</v>
+      </c>
+      <c r="Q45">
+        <v>-1.6257983870000001E-4</v>
+      </c>
+      <c r="R45" s="1">
+        <v>-5.4549610780000003E-7</v>
+      </c>
+      <c r="S45" s="1">
+        <v>-1.115195482E-10</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="0"/>
+        <v>6578373.1656613722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>611</v>
+      </c>
+      <c r="B46">
+        <v>1627613.656</v>
+      </c>
+      <c r="C46">
+        <v>2452.1587760000002</v>
+      </c>
+      <c r="D46">
+        <v>-1.1472292420000001</v>
+      </c>
+      <c r="E46">
+        <v>-8.4263230690000005E-4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-4.6572970200000001E-7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-4.7664828500000001E-10</v>
+      </c>
+      <c r="H46">
+        <v>4383509.7539999997</v>
+      </c>
+      <c r="I46">
+        <v>-645.81718509999996</v>
+      </c>
+      <c r="J46">
+        <v>-3.0897323559999998</v>
+      </c>
+      <c r="K46">
+        <v>-5.6599142909999995E-4</v>
+      </c>
+      <c r="L46" s="1">
+        <v>-6.6077539380000005E-7</v>
+      </c>
+      <c r="M46" s="1">
+        <v>-3.3539511799999999E-10</v>
+      </c>
+      <c r="N46">
+        <v>4606019.2149999999</v>
+      </c>
+      <c r="O46">
+        <v>-2424.5199280000002</v>
+      </c>
+      <c r="P46">
+        <v>-3.2465689370000002</v>
+      </c>
+      <c r="Q46">
+        <v>-1.8451535200000001E-4</v>
+      </c>
+      <c r="R46" s="1">
+        <v>-5.5138396839999998E-7</v>
+      </c>
+      <c r="S46" s="1">
+        <v>-1.2404877380000001E-10</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="0"/>
+        <v>6563512.5493564829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>621</v>
+      </c>
+      <c r="B47">
+        <v>1652019.673</v>
+      </c>
+      <c r="C47">
+        <v>2428.959515</v>
+      </c>
+      <c r="D47">
+        <v>-1.172792469</v>
+      </c>
+      <c r="E47">
+        <v>-8.6174526479999999E-4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-4.9009946819999999E-7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-4.9840292370000001E-10</v>
+      </c>
+      <c r="H47">
+        <v>4376742.0360000003</v>
+      </c>
+      <c r="I47">
+        <v>-707.7842895</v>
+      </c>
+      <c r="J47">
+        <v>-3.1071119700000001</v>
+      </c>
+      <c r="K47">
+        <v>-5.9276471450000004E-4</v>
+      </c>
+      <c r="L47" s="1">
+        <v>-6.7806294089999998E-7</v>
+      </c>
+      <c r="M47" s="1">
+        <v>-3.562838559E-10</v>
+      </c>
+      <c r="N47">
+        <v>4581449.1689999998</v>
+      </c>
+      <c r="O47">
+        <v>-2489.5088730000002</v>
+      </c>
+      <c r="P47">
+        <v>-3.2524365</v>
+      </c>
+      <c r="Q47">
+        <v>-2.066990196E-4</v>
+      </c>
+      <c r="R47" s="1">
+        <v>-5.5790666390000005E-7</v>
+      </c>
+      <c r="S47" s="1">
+        <v>-1.3691877880000001E-10</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="0"/>
+        <v>6547878.7662722692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>631</v>
+      </c>
+      <c r="B48">
+        <v>1676191.122</v>
+      </c>
+      <c r="C48">
+        <v>2405.243156</v>
+      </c>
+      <c r="D48">
+        <v>-1.198943928</v>
+      </c>
+      <c r="E48">
+        <v>-8.8185529830000001E-4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-5.1559697570000001E-7</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-5.2177680039999998E-10</v>
+      </c>
+      <c r="H48">
+        <v>4369352.8830000004</v>
+      </c>
+      <c r="I48">
+        <v>-770.10708839999995</v>
+      </c>
+      <c r="J48">
+        <v>-3.1253053660000001</v>
+      </c>
+      <c r="K48">
+        <v>-6.2025075160000004E-4</v>
+      </c>
+      <c r="L48" s="1">
+        <v>-6.9642218649999998E-7</v>
+      </c>
+      <c r="M48" s="1">
+        <v>-3.782772523E-10</v>
+      </c>
+      <c r="N48">
+        <v>4556228.6239999998</v>
+      </c>
+      <c r="O48">
+        <v>-2554.6218520000002</v>
+      </c>
+      <c r="P48">
+        <v>-3.2589736170000001</v>
+      </c>
+      <c r="Q48">
+        <v>-2.2915658750000001E-4</v>
+      </c>
+      <c r="R48" s="1">
+        <v>-5.6508212119999998E-7</v>
+      </c>
+      <c r="S48" s="1">
+        <v>-1.50165346E-10</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="0"/>
+        <v>6531468.4847903056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>641</v>
+      </c>
+      <c r="B49">
+        <v>1700122.7720000001</v>
+      </c>
+      <c r="C49">
+        <v>2380.997633</v>
+      </c>
+      <c r="D49">
+        <v>-1.2257142240000001</v>
+      </c>
+      <c r="E49">
+        <v>-9.0300917500000003E-4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-5.4230610520000004E-7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-5.4688848650000005E-10</v>
+      </c>
+      <c r="H49">
+        <v>4361338.6540000001</v>
+      </c>
+      <c r="I49">
+        <v>-832.8020755</v>
+      </c>
+      <c r="J49">
+        <v>-3.1443345809999999</v>
+      </c>
+      <c r="K49">
+        <v>-6.4849354199999999E-4</v>
+      </c>
+      <c r="L49" s="1">
+        <v>-7.1591054900000004E-7</v>
+      </c>
+      <c r="M49" s="1">
+        <v>-4.0146387069999999E-10</v>
+      </c>
+      <c r="N49">
+        <v>4530356.2740000002</v>
+      </c>
+      <c r="O49">
+        <v>-2619.872339</v>
+      </c>
+      <c r="P49">
+        <v>-3.2661888989999999</v>
+      </c>
+      <c r="Q49">
+        <v>-2.5191455509999998E-4</v>
+      </c>
+      <c r="R49" s="1">
+        <v>-5.7293009810000004E-7</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-1.638259599E-10</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="0"/>
+        <v>6514278.1844283147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>651</v>
+      </c>
+      <c r="B50">
+        <v>1723809.2690000001</v>
+      </c>
+      <c r="C50">
+        <v>2356.2102490000002</v>
+      </c>
+      <c r="D50">
+        <v>-1.2531354180000001</v>
+      </c>
+      <c r="E50">
+        <v>-9.2525713989999997E-4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-5.7031694789999996E-7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-5.7386801269999996E-10</v>
+      </c>
+      <c r="H50">
+        <v>4352695.5439999998</v>
+      </c>
+      <c r="I50">
+        <v>-895.88619889999995</v>
+      </c>
+      <c r="J50">
+        <v>-3.1642230090000001</v>
+      </c>
+      <c r="K50">
+        <v>-6.7753947489999997E-4</v>
+      </c>
+      <c r="L50" s="1">
+        <v>-7.3659005220000003E-7</v>
+      </c>
+      <c r="M50" s="1">
+        <v>-4.2593948419999998E-10</v>
+      </c>
+      <c r="N50">
+        <v>4503830.6739999996</v>
+      </c>
+      <c r="O50">
+        <v>-2685.273991</v>
+      </c>
+      <c r="P50">
+        <v>-3.2740917669999998</v>
+      </c>
+      <c r="Q50">
+        <v>-2.750002502E-4</v>
+      </c>
+      <c r="R50" s="1">
+        <v>-5.8147227269999995E-7</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-1.7793998490000001E-10</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="0"/>
+        <v>6496304.1519552534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>661</v>
+      </c>
+      <c r="B51">
+        <v>1747245.1270000001</v>
+      </c>
+      <c r="C51">
+        <v>2330.8676529999998</v>
+      </c>
+      <c r="D51">
+        <v>-1.2812411319999999</v>
+      </c>
+      <c r="E51">
+        <v>-9.4865317570000005E-4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-5.9972640689999995E-7</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-6.0285803799999999E-10</v>
+      </c>
+      <c r="H51">
+        <v>4343419.5750000002</v>
+      </c>
+      <c r="I51">
+        <v>-959.37688860000003</v>
+      </c>
+      <c r="J51">
+        <v>-3.1849954700000001</v>
+      </c>
+      <c r="K51">
+        <v>-7.0743751880000003E-4</v>
+      </c>
+      <c r="L51" s="1">
+        <v>-7.5852770419999998E-7</v>
+      </c>
+      <c r="M51" s="1">
+        <v>-4.5180780910000002E-10</v>
+      </c>
+      <c r="N51">
+        <v>4476650.2439999999</v>
+      </c>
+      <c r="O51">
+        <v>-2750.8406610000002</v>
+      </c>
+      <c r="P51">
+        <v>-3.282692473</v>
+      </c>
+      <c r="Q51">
+        <v>-2.9844190760000002E-4</v>
+      </c>
+      <c r="R51" s="1">
+        <v>-5.9073234249999997E-7</v>
+      </c>
+      <c r="S51" s="1">
+        <v>-1.925488543E-10</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="0"/>
+        <v>6477542.4773152731</v>
       </c>
     </row>
   </sheetData>
